--- a/문서/기능명세서 .xlsx
+++ b/문서/기능명세서 .xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="65">
   <si>
     <t>화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,11 +248,6 @@
   </si>
   <si>
     <t xml:space="preserve">수강 영상 사이트에서 영상 재생 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강신청 &amp; 
-수강영상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -413,19 +408,23 @@
         <color theme="0" tint="-0.499984740745262"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -435,7 +434,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -460,16 +459,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -484,17 +477,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -779,8 +790,8 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:A16"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -815,10 +826,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -838,8 +849,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
@@ -857,8 +868,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
@@ -876,8 +887,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
@@ -895,8 +906,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -914,484 +925,484 @@
       </c>
     </row>
     <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>65</v>
+      <c r="F9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="2" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>65</v>
+      <c r="F10" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="2" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>65</v>
+      <c r="F11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="2" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>65</v>
+      <c r="F12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="2" t="s">
+      <c r="C23" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
+      <c r="B24" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="2" t="s">
+      <c r="C24" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+      <c r="B25" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="2" t="s">
+      <c r="C25" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+      <c r="B26" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="2" t="s">
+      <c r="C26" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
+      <c r="B27" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="2" t="s">
+      <c r="C27" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
+      <c r="B28" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="2" t="s">
+      <c r="C28" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
+      <c r="B29" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="2" t="s">
+      <c r="C29" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
+      <c r="B30" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="C30" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="D30" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E30" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="F30" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G30" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
@@ -1412,11 +1423,11 @@
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
@@ -1463,8 +1474,8 @@
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A23:A30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/문서/기능명세서 .xlsx
+++ b/문서/기능명세서 .xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="68">
   <si>
     <t>화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,10 +263,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">수강영상 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">수강 완료 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,6 +285,26 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2종소형&amp;원동기
+동영상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1종 보통
+ 동영상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2종 보통 
+동영상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1종 대형 
+동영상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -327,7 +343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -428,13 +444,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -465,9 +507,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -478,33 +544,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -790,8 +841,8 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -826,10 +877,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -849,8 +900,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
@@ -868,8 +919,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
@@ -887,8 +938,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
@@ -906,8 +957,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -944,463 +995,467 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="19" t="s">
+      <c r="F9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="23" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="19" t="s">
+      <c r="B29" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="C29" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="24"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-      <c r="B27" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="19" t="s">
+      <c r="D30" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="E30" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="F30" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="17" t="s">
+      <c r="G30" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="B29" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
-      <c r="B30" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
     </row>
@@ -1423,11 +1478,11 @@
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
@@ -1465,7 +1520,12 @@
       <c r="E52" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="16">
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -1474,8 +1534,9 @@
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/문서/기능명세서 .xlsx
+++ b/문서/기능명세서 .xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="69">
   <si>
     <t>화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,6 +305,10 @@
   <si>
     <t>1종 대형 
 동영상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서형원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,6 +532,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -544,18 +560,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -842,7 +846,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -877,10 +881,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -900,8 +904,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
@@ -919,8 +923,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
@@ -938,8 +942,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
@@ -957,8 +961,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -976,8 +980,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1004,10 +1008,10 @@
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="26" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -1027,8 +1031,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="12" t="s">
         <v>41</v>
       </c>
@@ -1046,8 +1050,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="12" t="s">
         <v>43</v>
       </c>
@@ -1065,8 +1069,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="12" t="s">
         <v>45</v>
       </c>
@@ -1084,8 +1088,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -1105,8 +1109,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="12" t="s">
         <v>31</v>
       </c>
@@ -1124,8 +1128,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -1145,8 +1149,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="12" t="s">
         <v>36</v>
       </c>
@@ -1274,10 +1278,10 @@
       <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="16" t="s">
@@ -1297,8 +1301,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="12" t="s">
         <v>58</v>
       </c>
@@ -1316,10 +1320,10 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="19" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="16" t="s">
@@ -1339,8 +1343,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="12" t="s">
         <v>58</v>
       </c>
@@ -1358,10 +1362,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="19" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="16" t="s">
@@ -1381,8 +1385,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="12" t="s">
         <v>58</v>
       </c>
@@ -1400,10 +1404,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="16" t="s">
@@ -1423,8 +1427,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
-      <c r="B30" s="26"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="12" t="s">
         <v>58</v>
       </c>
@@ -1460,7 +1464,9 @@
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
+      <c r="A33" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1478,11 +1484,11 @@
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="21"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
@@ -1521,11 +1527,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -1537,6 +1538,11 @@
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
